--- a/docs/mcode/shr-core-VitalSign.xlsx
+++ b/docs/mcode/shr-core-VitalSign.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="401">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,302 +309,141 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique Id for this particular observation</t>
+  </si>
+  <si>
+    <t>A unique identifier for the simple observation instance.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>OBX.21</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.category.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>precondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Id for this particular observation</t>
-  </si>
-  <si>
-    <t>A unique identifier for the simple observation instance.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>OBX.21</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -801,6 +719,10 @@
   </si>
   <si>
     <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>Date/Time this was made available</t>
@@ -889,6 +811,9 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
@@ -915,7 +840,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/QuantitativeResultInterpretationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/QuantitativeResultInterpretationVS</t>
   </si>
   <si>
     <t>OBX-8</t>
@@ -960,25 +885,13 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
   </si>
   <si>
     <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1498,7 +1411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM82"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1530,8 +1443,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1992,21 +1905,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2069,7 +1984,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2077,18 +1992,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2135,13 +2050,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2173,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2181,11 +2096,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2201,19 +2116,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2268,7 +2183,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2277,7 +2192,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2285,18 +2200,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2305,19 +2220,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2381,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2389,11 +2304,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2409,19 +2324,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2459,16 +2374,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2485,7 +2398,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2493,9 +2406,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2513,20 +2428,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2551,13 +2462,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2574,11 +2485,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2597,11 +2512,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2614,22 +2529,22 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2655,10 +2570,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2693,7 +2608,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2701,7 +2616,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2712,30 +2627,30 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2794,18 +2709,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2813,7 +2728,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -2822,24 +2737,24 @@
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2863,13 +2778,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2898,26 +2813,26 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
@@ -2932,16 +2847,16 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2967,13 +2882,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2990,13 +2905,17 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -3005,26 +2924,26 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -3036,17 +2955,15 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3109,7 +3026,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -3117,11 +3034,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3140,16 +3057,16 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3187,14 +3104,16 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
@@ -3211,7 +3130,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3219,17 +3138,15 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>41</v>
@@ -3241,17 +3158,23 @@
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3287,26 +3210,20 @@
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3314,10 +3231,10 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3325,40 +3242,38 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I18" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3421,7 +3336,7 @@
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3429,7 +3344,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3440,7 +3355,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3452,18 +3367,16 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3522,52 +3435,52 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3591,13 +3504,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3626,18 +3539,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3645,7 +3558,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -3657,27 +3570,29 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>42</v>
@@ -3695,13 +3610,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3718,15 +3633,11 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3734,18 +3645,18 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3765,18 +3676,20 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3836,10 +3749,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3851,14 +3764,14 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3867,27 +3780,27 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>42</v>
@@ -3940,10 +3853,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3951,7 +3864,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3959,10 +3872,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -3974,19 +3887,17 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4023,14 +3934,16 @@
         <v>42</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
@@ -4044,10 +3957,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4055,17 +3968,15 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
@@ -4080,14 +3991,20 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4146,10 +4063,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4157,7 +4074,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4177,19 +4094,23 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4248,10 +4169,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4259,18 +4180,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4279,21 +4200,21 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4317,13 +4238,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4352,18 +4273,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4371,7 +4292,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4386,26 +4307,26 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>42</v>
@@ -4446,11 +4367,15 @@
       <c r="AD28" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4458,18 +4383,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4489,21 +4414,21 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4562,18 +4487,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4596,24 +4521,26 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>42</v>
@@ -4666,18 +4593,18 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4700,18 +4627,18 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4770,18 +4697,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4792,7 +4719,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4804,19 +4731,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4876,18 +4801,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4910,19 +4835,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4982,10 +4907,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4993,7 +4918,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5001,7 +4926,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5013,20 +4938,22 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5051,13 +4978,11 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5080,32 +5005,32 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5117,22 +5042,20 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5157,13 +5080,11 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5180,15 +5101,11 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5196,18 +5113,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5230,17 +5147,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5300,18 +5217,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5331,22 +5248,22 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5371,13 +5288,11 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5406,18 +5321,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5437,21 +5352,23 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5475,13 +5392,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5510,18 +5427,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5532,7 +5449,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5541,21 +5458,21 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5602,11 +5519,15 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5614,18 +5535,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5636,7 +5557,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5645,23 +5566,21 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5708,11 +5627,15 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5720,10 +5643,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5731,7 +5654,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5754,19 +5677,19 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5791,11 +5714,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5812,22 +5737,26 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH41" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5835,11 +5764,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5858,18 +5787,16 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5893,11 +5820,13 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5926,10 +5855,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5937,18 +5866,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5960,18 +5889,18 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6030,10 +5959,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6041,43 +5970,41 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6101,11 +6028,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6134,10 +6063,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6145,7 +6074,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6168,13 +6097,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6230,16 +6159,16 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6247,18 +6176,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6270,17 +6199,15 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6334,16 +6261,16 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6351,7 +6278,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6362,7 +6289,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6371,22 +6298,22 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6411,13 +6338,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6446,10 +6373,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6457,7 +6384,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6477,22 +6404,20 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>183</v>
+        <v>338</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6552,10 +6477,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6563,7 +6488,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6586,20 +6511,16 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6623,13 +6544,13 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6658,10 +6579,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6669,7 +6590,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6689,21 +6610,23 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6751,13 +6674,13 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
@@ -6766,10 +6689,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6777,7 +6700,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6788,7 +6711,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6800,17 +6723,15 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6858,15 +6779,11 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6874,10 +6791,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>332</v>
+        <v>132</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6885,18 +6802,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6908,20 +6825,18 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>334</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>335</v>
+        <v>92</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -6968,26 +6883,22 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6995,38 +6906,40 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7089,7 +7002,7 @@
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7097,18 +7010,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
@@ -7123,21 +7036,23 @@
         <v>67</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>68</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>69</v>
+        <v>359</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>42</v>
@@ -7155,13 +7070,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7190,10 +7105,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>64</v>
+        <v>365</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7201,40 +7116,38 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7297,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7305,7 +7218,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7316,7 +7229,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7325,19 +7238,23 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7390,16 +7307,16 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7407,7 +7324,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7430,13 +7347,13 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>348</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>355</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7492,16 +7409,16 @@
       </c>
       <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7509,18 +7426,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7532,20 +7449,18 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7569,13 +7484,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7604,10 +7519,10 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7615,41 +7530,41 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>367</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7711,7 +7626,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7719,7 +7634,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7727,7 +7642,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>51</v>
@@ -7739,19 +7654,21 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7775,13 +7692,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7804,24 +7721,24 @@
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>352</v>
+        <v>196</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>375</v>
+        <v>197</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7832,7 +7749,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7844,19 +7761,19 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>380</v>
+        <v>246</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -7904,15 +7821,11 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7920,10 +7833,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>381</v>
+        <v>247</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>382</v>
+        <v>248</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7931,7 +7844,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7954,16 +7867,20 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -7987,13 +7904,11 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8016,16 +7931,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8033,11 +7948,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8056,18 +7971,20 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>68</v>
+        <v>392</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8126,10 +8043,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8137,40 +8054,38 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8233,7 +8148,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8241,18 +8156,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8264,26 +8179,24 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>387</v>
+        <v>92</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>42</v>
@@ -8301,13 +8214,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>392</v>
+        <v>42</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8336,10 +8249,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8351,34 +8264,36 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>396</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>397</v>
+        <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8441,7 +8356,7 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>399</v>
+        <v>88</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8449,7 +8364,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8460,7 +8375,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8469,23 +8384,19 @@
         <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8538,16 +8449,16 @@
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8555,7 +8466,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8578,13 +8489,13 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8640,16 +8551,16 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8657,18 +8568,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8680,18 +8591,20 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>69</v>
+        <v>331</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8715,13 +8628,13 @@
         <v>42</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>42</v>
@@ -8750,10 +8663,10 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8761,41 +8674,41 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>339</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8857,7 +8770,7 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>125</v>
+        <v>342</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8865,7 +8778,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8873,7 +8786,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>51</v>
@@ -8885,21 +8798,19 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
@@ -8923,13 +8834,13 @@
         <v>42</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -8952,1165 +8863,23 @@
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" t="s" s="2">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X73" s="2"/>
-      <c r="Y73" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" s="2"/>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" s="2"/>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" s="2"/>
-      <c r="AF78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG78" s="2"/>
-      <c r="AH78" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" s="2"/>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" s="2"/>
-      <c r="AH79" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE80" s="2"/>
-      <c r="AF80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG80" s="2"/>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE81" s="2"/>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" s="2"/>
-      <c r="AH81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE82" s="2"/>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" s="2"/>
-      <c r="AH82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AL82" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL82">
+  <autoFilter ref="A1:AL71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10120,7 +8889,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
